--- a/COVID19-Argentina/Data_XLSX/COVID19_Evolution_Deaths.xlsx
+++ b/COVID19-Argentina/Data_XLSX/COVID19_Evolution_Deaths.xlsx
@@ -417,16 +417,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ25"/>
+  <dimension ref="A1:AR25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AA1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AQ25" sqref="AQ25"/>
+      <selection pane="topRight" activeCell="AR25" sqref="AR25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -556,8 +556,11 @@
       <c r="AQ1" s="1">
         <v>43934</v>
       </c>
+      <c r="AR1" s="1">
+        <v>43935</v>
+      </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -687,8 +690,11 @@
       <c r="AQ2">
         <v>37</v>
       </c>
+      <c r="AR2">
+        <v>39</v>
+      </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -818,8 +824,11 @@
       <c r="AQ3">
         <v>32</v>
       </c>
+      <c r="AR3">
+        <v>34</v>
+      </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -949,8 +958,11 @@
       <c r="AQ4">
         <v>0</v>
       </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1080,8 +1092,11 @@
       <c r="AQ5">
         <v>8</v>
       </c>
+      <c r="AR5">
+        <v>9</v>
+      </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1211,8 +1226,11 @@
       <c r="AQ6">
         <v>0</v>
       </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1342,8 +1360,11 @@
       <c r="AQ7">
         <v>4</v>
       </c>
+      <c r="AR7">
+        <v>5</v>
+      </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1473,8 +1494,11 @@
       <c r="AQ8">
         <v>0</v>
       </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1604,8 +1628,11 @@
       <c r="AQ9">
         <v>0</v>
       </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1735,8 +1762,11 @@
       <c r="AQ10">
         <v>0</v>
       </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1866,8 +1896,11 @@
       <c r="AQ11">
         <v>0</v>
       </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1997,8 +2030,11 @@
       <c r="AQ12">
         <v>0</v>
       </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2128,8 +2164,11 @@
       <c r="AQ13">
         <v>1</v>
       </c>
+      <c r="AR13">
+        <v>1</v>
+      </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2259,8 +2298,11 @@
       <c r="AQ14">
         <v>4</v>
       </c>
+      <c r="AR14">
+        <v>4</v>
+      </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2390,8 +2432,11 @@
       <c r="AQ15">
         <v>0</v>
       </c>
+      <c r="AR15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -2521,8 +2566,11 @@
       <c r="AQ16">
         <v>5</v>
       </c>
+      <c r="AR16">
+        <v>5</v>
+      </c>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2652,8 +2700,11 @@
       <c r="AQ17">
         <v>1</v>
       </c>
+      <c r="AR17">
+        <v>2</v>
+      </c>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -2783,8 +2834,11 @@
       <c r="AQ18">
         <v>0</v>
       </c>
+      <c r="AR18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -2914,8 +2968,11 @@
       <c r="AQ19">
         <v>0</v>
       </c>
+      <c r="AR19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -3045,8 +3102,11 @@
       <c r="AQ20">
         <v>0</v>
       </c>
+      <c r="AR20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -3176,8 +3236,11 @@
       <c r="AQ21">
         <v>0</v>
       </c>
+      <c r="AR21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -3307,8 +3370,11 @@
       <c r="AQ22">
         <v>2</v>
       </c>
+      <c r="AR22">
+        <v>2</v>
+      </c>
     </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -3438,8 +3504,11 @@
       <c r="AQ23">
         <v>0</v>
       </c>
+      <c r="AR23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -3569,8 +3638,11 @@
       <c r="AQ24">
         <v>0</v>
       </c>
+      <c r="AR24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -3698,6 +3770,9 @@
         <v>4</v>
       </c>
       <c r="AQ25">
+        <v>4</v>
+      </c>
+      <c r="AR25">
         <v>4</v>
       </c>
     </row>

--- a/COVID19-Argentina/Data_XLSX/COVID19_Evolution_Deaths.xlsx
+++ b/COVID19-Argentina/Data_XLSX/COVID19_Evolution_Deaths.xlsx
@@ -417,16 +417,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AR25"/>
+  <dimension ref="A1:AT25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AA1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AR25" sqref="AR25"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AN1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AT20" sqref="AT20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -559,8 +559,14 @@
       <c r="AR1" s="1">
         <v>43935</v>
       </c>
+      <c r="AS1" s="1">
+        <v>43936</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>43937</v>
+      </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -693,8 +699,14 @@
       <c r="AR2">
         <v>39</v>
       </c>
+      <c r="AS2">
+        <v>40</v>
+      </c>
+      <c r="AT2">
+        <v>45</v>
+      </c>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -827,8 +839,14 @@
       <c r="AR3">
         <v>34</v>
       </c>
+      <c r="AS3">
+        <v>38</v>
+      </c>
+      <c r="AT3">
+        <v>41</v>
+      </c>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -961,8 +979,14 @@
       <c r="AR4">
         <v>0</v>
       </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1095,8 +1119,14 @@
       <c r="AR5">
         <v>9</v>
       </c>
+      <c r="AS5">
+        <v>9</v>
+      </c>
+      <c r="AT5">
+        <v>10</v>
+      </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1229,8 +1259,14 @@
       <c r="AR6">
         <v>0</v>
       </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1363,8 +1399,14 @@
       <c r="AR7">
         <v>5</v>
       </c>
+      <c r="AS7">
+        <v>6</v>
+      </c>
+      <c r="AT7">
+        <v>6</v>
+      </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1497,8 +1539,14 @@
       <c r="AR8">
         <v>0</v>
       </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1631,8 +1679,14 @@
       <c r="AR9">
         <v>0</v>
       </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1765,8 +1819,14 @@
       <c r="AR10">
         <v>0</v>
       </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1899,8 +1959,14 @@
       <c r="AR11">
         <v>0</v>
       </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2033,8 +2099,14 @@
       <c r="AR12">
         <v>0</v>
       </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
+      <c r="AT12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2167,8 +2239,14 @@
       <c r="AR13">
         <v>1</v>
       </c>
+      <c r="AS13">
+        <v>2</v>
+      </c>
+      <c r="AT13">
+        <v>2</v>
+      </c>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2301,8 +2379,14 @@
       <c r="AR14">
         <v>4</v>
       </c>
+      <c r="AS14">
+        <v>4</v>
+      </c>
+      <c r="AT14">
+        <v>5</v>
+      </c>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2435,8 +2519,14 @@
       <c r="AR15">
         <v>0</v>
       </c>
+      <c r="AS15">
+        <v>0</v>
+      </c>
+      <c r="AT15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -2569,8 +2659,14 @@
       <c r="AR16">
         <v>5</v>
       </c>
+      <c r="AS16">
+        <v>5</v>
+      </c>
+      <c r="AT16">
+        <v>5</v>
+      </c>
     </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2703,8 +2799,14 @@
       <c r="AR17">
         <v>2</v>
       </c>
+      <c r="AS17">
+        <v>2</v>
+      </c>
+      <c r="AT17">
+        <v>2</v>
+      </c>
     </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -2837,8 +2939,14 @@
       <c r="AR18">
         <v>0</v>
       </c>
+      <c r="AS18">
+        <v>0</v>
+      </c>
+      <c r="AT18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -2971,8 +3079,14 @@
       <c r="AR19">
         <v>0</v>
       </c>
+      <c r="AS19">
+        <v>0</v>
+      </c>
+      <c r="AT19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -3105,8 +3219,14 @@
       <c r="AR20">
         <v>0</v>
       </c>
+      <c r="AS20">
+        <v>0</v>
+      </c>
+      <c r="AT20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -3239,8 +3359,14 @@
       <c r="AR21">
         <v>0</v>
       </c>
+      <c r="AS21">
+        <v>0</v>
+      </c>
+      <c r="AT21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -3373,8 +3499,14 @@
       <c r="AR22">
         <v>2</v>
       </c>
+      <c r="AS22">
+        <v>2</v>
+      </c>
+      <c r="AT22">
+        <v>2</v>
+      </c>
     </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -3507,8 +3639,14 @@
       <c r="AR23">
         <v>0</v>
       </c>
+      <c r="AS23">
+        <v>0</v>
+      </c>
+      <c r="AT23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -3641,8 +3779,14 @@
       <c r="AR24">
         <v>0</v>
       </c>
+      <c r="AS24">
+        <v>0</v>
+      </c>
+      <c r="AT24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -3773,6 +3917,12 @@
         <v>4</v>
       </c>
       <c r="AR25">
+        <v>4</v>
+      </c>
+      <c r="AS25">
+        <v>4</v>
+      </c>
+      <c r="AT25">
         <v>4</v>
       </c>
     </row>

--- a/COVID19-Argentina/Data_XLSX/COVID19_Evolution_Deaths.xlsx
+++ b/COVID19-Argentina/Data_XLSX/COVID19_Evolution_Deaths.xlsx
@@ -417,16 +417,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT25"/>
+  <dimension ref="A1:AV25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AN1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AT20" sqref="AT20"/>
+      <selection pane="topRight" activeCell="AV26" sqref="AV26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -565,8 +565,14 @@
       <c r="AT1" s="1">
         <v>43937</v>
       </c>
+      <c r="AU1" s="1">
+        <v>43938</v>
+      </c>
+      <c r="AV1" s="1">
+        <v>43939</v>
+      </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -705,8 +711,14 @@
       <c r="AT2">
         <v>45</v>
       </c>
+      <c r="AU2">
+        <v>48</v>
+      </c>
+      <c r="AV2">
+        <v>50</v>
+      </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -845,8 +857,14 @@
       <c r="AT3">
         <v>41</v>
       </c>
+      <c r="AU3">
+        <v>42</v>
+      </c>
+      <c r="AV3">
+        <v>44</v>
+      </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -985,8 +1003,14 @@
       <c r="AT4">
         <v>0</v>
       </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1125,8 +1149,14 @@
       <c r="AT5">
         <v>10</v>
       </c>
+      <c r="AU5">
+        <v>10</v>
+      </c>
+      <c r="AV5">
+        <v>10</v>
+      </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1265,8 +1295,14 @@
       <c r="AT6">
         <v>0</v>
       </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1405,8 +1441,14 @@
       <c r="AT7">
         <v>6</v>
       </c>
+      <c r="AU7">
+        <v>6</v>
+      </c>
+      <c r="AV7">
+        <v>6</v>
+      </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1545,8 +1587,14 @@
       <c r="AT8">
         <v>0</v>
       </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1685,8 +1733,14 @@
       <c r="AT9">
         <v>0</v>
       </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1825,8 +1879,14 @@
       <c r="AT10">
         <v>0</v>
       </c>
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1965,8 +2025,14 @@
       <c r="AT11">
         <v>0</v>
       </c>
+      <c r="AU11">
+        <v>0</v>
+      </c>
+      <c r="AV11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2105,8 +2171,14 @@
       <c r="AT12">
         <v>0</v>
       </c>
+      <c r="AU12">
+        <v>0</v>
+      </c>
+      <c r="AV12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2245,8 +2317,14 @@
       <c r="AT13">
         <v>2</v>
       </c>
+      <c r="AU13">
+        <v>3</v>
+      </c>
+      <c r="AV13">
+        <v>3</v>
+      </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2385,8 +2463,14 @@
       <c r="AT14">
         <v>5</v>
       </c>
+      <c r="AU14">
+        <v>7</v>
+      </c>
+      <c r="AV14">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2525,8 +2609,14 @@
       <c r="AT15">
         <v>0</v>
       </c>
+      <c r="AU15">
+        <v>0</v>
+      </c>
+      <c r="AV15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -2665,8 +2755,14 @@
       <c r="AT16">
         <v>5</v>
       </c>
+      <c r="AU16">
+        <v>5</v>
+      </c>
+      <c r="AV16">
+        <v>5</v>
+      </c>
     </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2805,8 +2901,14 @@
       <c r="AT17">
         <v>2</v>
       </c>
+      <c r="AU17">
+        <v>2</v>
+      </c>
+      <c r="AV17">
+        <v>2</v>
+      </c>
     </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -2945,8 +3047,14 @@
       <c r="AT18">
         <v>0</v>
       </c>
+      <c r="AU18">
+        <v>0</v>
+      </c>
+      <c r="AV18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -3085,8 +3193,14 @@
       <c r="AT19">
         <v>0</v>
       </c>
+      <c r="AU19">
+        <v>0</v>
+      </c>
+      <c r="AV19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -3225,8 +3339,14 @@
       <c r="AT20">
         <v>0</v>
       </c>
+      <c r="AU20">
+        <v>0</v>
+      </c>
+      <c r="AV20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -3365,8 +3485,14 @@
       <c r="AT21">
         <v>0</v>
       </c>
+      <c r="AU21">
+        <v>0</v>
+      </c>
+      <c r="AV21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -3505,8 +3631,14 @@
       <c r="AT22">
         <v>2</v>
       </c>
+      <c r="AU22">
+        <v>2</v>
+      </c>
+      <c r="AV22">
+        <v>2</v>
+      </c>
     </row>
-    <row r="23" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -3645,8 +3777,14 @@
       <c r="AT23">
         <v>0</v>
       </c>
+      <c r="AU23">
+        <v>0</v>
+      </c>
+      <c r="AV23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -3785,8 +3923,14 @@
       <c r="AT24">
         <v>0</v>
       </c>
+      <c r="AU24">
+        <v>0</v>
+      </c>
+      <c r="AV24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -3923,6 +4067,12 @@
         <v>4</v>
       </c>
       <c r="AT25">
+        <v>4</v>
+      </c>
+      <c r="AU25">
+        <v>4</v>
+      </c>
+      <c r="AV25">
         <v>4</v>
       </c>
     </row>

--- a/COVID19-Argentina/Data_XLSX/COVID19_Evolution_Deaths.xlsx
+++ b/COVID19-Argentina/Data_XLSX/COVID19_Evolution_Deaths.xlsx
@@ -417,16 +417,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AV25"/>
+  <dimension ref="A1:AY25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AN1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AV26" sqref="AV26"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AR1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AY27" sqref="AY27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -571,8 +571,17 @@
       <c r="AV1" s="1">
         <v>43939</v>
       </c>
+      <c r="AW1" s="1">
+        <v>43940</v>
+      </c>
+      <c r="AX1" s="1">
+        <v>43941</v>
+      </c>
+      <c r="AY1" s="1">
+        <v>43942</v>
+      </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -717,8 +726,17 @@
       <c r="AV2">
         <v>50</v>
       </c>
+      <c r="AW2">
+        <v>51</v>
+      </c>
+      <c r="AX2">
+        <v>51</v>
+      </c>
+      <c r="AY2">
+        <v>55</v>
+      </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -861,10 +879,19 @@
         <v>42</v>
       </c>
       <c r="AV3">
+        <v>43</v>
+      </c>
+      <c r="AW3">
+        <v>43</v>
+      </c>
+      <c r="AX3">
         <v>44</v>
       </c>
+      <c r="AY3">
+        <v>47</v>
+      </c>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1009,8 +1036,17 @@
       <c r="AV4">
         <v>0</v>
       </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1155,8 +1191,17 @@
       <c r="AV5">
         <v>10</v>
       </c>
+      <c r="AW5">
+        <v>10</v>
+      </c>
+      <c r="AX5">
+        <v>11</v>
+      </c>
+      <c r="AY5">
+        <v>11</v>
+      </c>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1301,8 +1346,17 @@
       <c r="AV6">
         <v>0</v>
       </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1447,8 +1501,17 @@
       <c r="AV7">
         <v>6</v>
       </c>
+      <c r="AW7">
+        <v>7</v>
+      </c>
+      <c r="AX7">
+        <v>9</v>
+      </c>
+      <c r="AY7">
+        <v>9</v>
+      </c>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1593,8 +1656,17 @@
       <c r="AV8">
         <v>0</v>
       </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>0</v>
+      </c>
+      <c r="AY8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1739,8 +1811,17 @@
       <c r="AV9">
         <v>0</v>
       </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>0</v>
+      </c>
+      <c r="AY9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1885,8 +1966,17 @@
       <c r="AV10">
         <v>0</v>
       </c>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
+      <c r="AY10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2031,8 +2121,17 @@
       <c r="AV11">
         <v>0</v>
       </c>
+      <c r="AW11">
+        <v>0</v>
+      </c>
+      <c r="AX11">
+        <v>0</v>
+      </c>
+      <c r="AY11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2177,8 +2276,17 @@
       <c r="AV12">
         <v>0</v>
       </c>
+      <c r="AW12">
+        <v>0</v>
+      </c>
+      <c r="AX12">
+        <v>0</v>
+      </c>
+      <c r="AY12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2323,8 +2431,17 @@
       <c r="AV13">
         <v>3</v>
       </c>
+      <c r="AW13">
+        <v>3</v>
+      </c>
+      <c r="AX13">
+        <v>3</v>
+      </c>
+      <c r="AY13">
+        <v>5</v>
+      </c>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2469,8 +2586,17 @@
       <c r="AV14">
         <v>7</v>
       </c>
+      <c r="AW14">
+        <v>7</v>
+      </c>
+      <c r="AX14">
+        <v>8</v>
+      </c>
+      <c r="AY14">
+        <v>8</v>
+      </c>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2615,8 +2741,17 @@
       <c r="AV15">
         <v>0</v>
       </c>
+      <c r="AW15">
+        <v>0</v>
+      </c>
+      <c r="AX15">
+        <v>0</v>
+      </c>
+      <c r="AY15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -2761,8 +2896,17 @@
       <c r="AV16">
         <v>5</v>
       </c>
+      <c r="AW16">
+        <v>5</v>
+      </c>
+      <c r="AX16">
+        <v>5</v>
+      </c>
+      <c r="AY16">
+        <v>5</v>
+      </c>
     </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2907,8 +3051,17 @@
       <c r="AV17">
         <v>2</v>
       </c>
+      <c r="AW17">
+        <v>2</v>
+      </c>
+      <c r="AX17">
+        <v>5</v>
+      </c>
+      <c r="AY17">
+        <v>5</v>
+      </c>
     </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -3053,8 +3206,17 @@
       <c r="AV18">
         <v>0</v>
       </c>
+      <c r="AW18">
+        <v>0</v>
+      </c>
+      <c r="AX18">
+        <v>0</v>
+      </c>
+      <c r="AY18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -3199,8 +3361,17 @@
       <c r="AV19">
         <v>0</v>
       </c>
+      <c r="AW19">
+        <v>0</v>
+      </c>
+      <c r="AX19">
+        <v>0</v>
+      </c>
+      <c r="AY19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -3345,8 +3516,17 @@
       <c r="AV20">
         <v>0</v>
       </c>
+      <c r="AW20">
+        <v>0</v>
+      </c>
+      <c r="AX20">
+        <v>0</v>
+      </c>
+      <c r="AY20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -3491,8 +3671,17 @@
       <c r="AV21">
         <v>0</v>
       </c>
+      <c r="AW21">
+        <v>0</v>
+      </c>
+      <c r="AX21">
+        <v>0</v>
+      </c>
+      <c r="AY21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -3637,8 +3826,17 @@
       <c r="AV22">
         <v>2</v>
       </c>
+      <c r="AW22">
+        <v>2</v>
+      </c>
+      <c r="AX22">
+        <v>2</v>
+      </c>
+      <c r="AY22">
+        <v>2</v>
+      </c>
     </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -3783,8 +3981,17 @@
       <c r="AV23">
         <v>0</v>
       </c>
+      <c r="AW23">
+        <v>0</v>
+      </c>
+      <c r="AX23">
+        <v>0</v>
+      </c>
+      <c r="AY23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -3929,8 +4136,17 @@
       <c r="AV24">
         <v>0</v>
       </c>
+      <c r="AW24">
+        <v>0</v>
+      </c>
+      <c r="AX24">
+        <v>0</v>
+      </c>
+      <c r="AY24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -4073,6 +4289,15 @@
         <v>4</v>
       </c>
       <c r="AV25">
+        <v>4</v>
+      </c>
+      <c r="AW25">
+        <v>4</v>
+      </c>
+      <c r="AX25">
+        <v>4</v>
+      </c>
+      <c r="AY25">
         <v>4</v>
       </c>
     </row>

--- a/COVID19-Argentina/Data_XLSX/COVID19_Evolution_Deaths.xlsx
+++ b/COVID19-Argentina/Data_XLSX/COVID19_Evolution_Deaths.xlsx
@@ -417,16 +417,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AY25"/>
+  <dimension ref="A1:AZ25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AR1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AY27" sqref="AY27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AU1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AZ1" sqref="AZ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -580,8 +580,11 @@
       <c r="AY1" s="1">
         <v>43942</v>
       </c>
+      <c r="AZ1" s="1">
+        <v>43943</v>
+      </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -735,8 +738,11 @@
       <c r="AY2">
         <v>55</v>
       </c>
+      <c r="AZ2">
+        <v>60</v>
+      </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -890,8 +896,11 @@
       <c r="AY3">
         <v>47</v>
       </c>
+      <c r="AZ3">
+        <v>49</v>
+      </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1045,8 +1054,11 @@
       <c r="AY4">
         <v>0</v>
       </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1200,8 +1212,11 @@
       <c r="AY5">
         <v>11</v>
       </c>
+      <c r="AZ5">
+        <v>11</v>
+      </c>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1355,8 +1370,11 @@
       <c r="AY6">
         <v>0</v>
       </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1510,8 +1528,11 @@
       <c r="AY7">
         <v>9</v>
       </c>
+      <c r="AZ7">
+        <v>10</v>
+      </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1665,8 +1686,11 @@
       <c r="AY8">
         <v>0</v>
       </c>
+      <c r="AZ8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1820,8 +1844,11 @@
       <c r="AY9">
         <v>0</v>
       </c>
+      <c r="AZ9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1975,8 +2002,11 @@
       <c r="AY10">
         <v>0</v>
       </c>
+      <c r="AZ10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2130,8 +2160,11 @@
       <c r="AY11">
         <v>0</v>
       </c>
+      <c r="AZ11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2285,8 +2318,11 @@
       <c r="AY12">
         <v>0</v>
       </c>
+      <c r="AZ12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2440,8 +2476,11 @@
       <c r="AY13">
         <v>5</v>
       </c>
+      <c r="AZ13">
+        <v>5</v>
+      </c>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2595,8 +2634,11 @@
       <c r="AY14">
         <v>8</v>
       </c>
+      <c r="AZ14">
+        <v>8</v>
+      </c>
     </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2750,8 +2792,11 @@
       <c r="AY15">
         <v>0</v>
       </c>
+      <c r="AZ15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -2905,8 +2950,11 @@
       <c r="AY16">
         <v>5</v>
       </c>
+      <c r="AZ16">
+        <v>5</v>
+      </c>
     </row>
-    <row r="17" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -3060,8 +3108,11 @@
       <c r="AY17">
         <v>5</v>
       </c>
+      <c r="AZ17">
+        <v>5</v>
+      </c>
     </row>
-    <row r="18" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -3215,8 +3266,11 @@
       <c r="AY18">
         <v>0</v>
       </c>
+      <c r="AZ18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -3370,8 +3424,11 @@
       <c r="AY19">
         <v>0</v>
       </c>
+      <c r="AZ19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -3525,8 +3582,11 @@
       <c r="AY20">
         <v>0</v>
       </c>
+      <c r="AZ20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -3680,8 +3740,11 @@
       <c r="AY21">
         <v>0</v>
       </c>
+      <c r="AZ21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -3835,8 +3898,11 @@
       <c r="AY22">
         <v>2</v>
       </c>
+      <c r="AZ22">
+        <v>2</v>
+      </c>
     </row>
-    <row r="23" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -3990,8 +4056,11 @@
       <c r="AY23">
         <v>0</v>
       </c>
+      <c r="AZ23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -4145,8 +4214,11 @@
       <c r="AY24">
         <v>0</v>
       </c>
+      <c r="AZ24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -4298,6 +4370,9 @@
         <v>4</v>
       </c>
       <c r="AY25">
+        <v>4</v>
+      </c>
+      <c r="AZ25">
         <v>4</v>
       </c>
     </row>

--- a/COVID19-Argentina/Data_XLSX/COVID19_Evolution_Deaths.xlsx
+++ b/COVID19-Argentina/Data_XLSX/COVID19_Evolution_Deaths.xlsx
@@ -417,16 +417,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ25"/>
+  <dimension ref="A1:BA25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="AU1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AZ1" sqref="AZ1"/>
+      <selection pane="topRight" activeCell="BA1" sqref="BA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -583,8 +583,11 @@
       <c r="AZ1" s="1">
         <v>43943</v>
       </c>
+      <c r="BA1" s="1">
+        <v>43944</v>
+      </c>
     </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -741,8 +744,11 @@
       <c r="AZ2">
         <v>60</v>
       </c>
+      <c r="BA2">
+        <v>64</v>
+      </c>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -899,8 +905,11 @@
       <c r="AZ3">
         <v>49</v>
       </c>
+      <c r="BA3">
+        <v>50</v>
+      </c>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1057,8 +1066,11 @@
       <c r="AZ4">
         <v>0</v>
       </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1215,8 +1227,11 @@
       <c r="AZ5">
         <v>11</v>
       </c>
+      <c r="BA5">
+        <v>11</v>
+      </c>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1373,8 +1388,11 @@
       <c r="AZ6">
         <v>0</v>
       </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1531,8 +1549,11 @@
       <c r="AZ7">
         <v>10</v>
       </c>
+      <c r="BA7">
+        <v>10</v>
+      </c>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1689,8 +1710,11 @@
       <c r="AZ8">
         <v>0</v>
       </c>
+      <c r="BA8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1847,8 +1871,11 @@
       <c r="AZ9">
         <v>0</v>
       </c>
+      <c r="BA9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2005,8 +2032,11 @@
       <c r="AZ10">
         <v>0</v>
       </c>
+      <c r="BA10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2163,8 +2193,11 @@
       <c r="AZ11">
         <v>0</v>
       </c>
+      <c r="BA11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2321,8 +2354,11 @@
       <c r="AZ12">
         <v>0</v>
       </c>
+      <c r="BA12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2479,8 +2515,11 @@
       <c r="AZ13">
         <v>5</v>
       </c>
+      <c r="BA13">
+        <v>5</v>
+      </c>
     </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2637,8 +2676,11 @@
       <c r="AZ14">
         <v>8</v>
       </c>
+      <c r="BA14">
+        <v>9</v>
+      </c>
     </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2795,8 +2837,11 @@
       <c r="AZ15">
         <v>0</v>
       </c>
+      <c r="BA15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -2953,8 +2998,11 @@
       <c r="AZ16">
         <v>5</v>
       </c>
+      <c r="BA16">
+        <v>5</v>
+      </c>
     </row>
-    <row r="17" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -3111,8 +3159,11 @@
       <c r="AZ17">
         <v>5</v>
       </c>
+      <c r="BA17">
+        <v>5</v>
+      </c>
     </row>
-    <row r="18" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -3269,8 +3320,11 @@
       <c r="AZ18">
         <v>0</v>
       </c>
+      <c r="BA18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -3427,8 +3481,11 @@
       <c r="AZ19">
         <v>0</v>
       </c>
+      <c r="BA19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -3585,8 +3642,11 @@
       <c r="AZ20">
         <v>0</v>
       </c>
+      <c r="BA20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -3743,8 +3803,11 @@
       <c r="AZ21">
         <v>0</v>
       </c>
+      <c r="BA21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -3901,8 +3964,11 @@
       <c r="AZ22">
         <v>2</v>
       </c>
+      <c r="BA22">
+        <v>2</v>
+      </c>
     </row>
-    <row r="23" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -4059,8 +4125,11 @@
       <c r="AZ23">
         <v>0</v>
       </c>
+      <c r="BA23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -4217,8 +4286,11 @@
       <c r="AZ24">
         <v>0</v>
       </c>
+      <c r="BA24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -4373,6 +4445,9 @@
         <v>4</v>
       </c>
       <c r="AZ25">
+        <v>4</v>
+      </c>
+      <c r="BA25">
         <v>4</v>
       </c>
     </row>
